--- a/AAII_Financials/Yearly/CHL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CHL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>CHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>105718800</v>
+        <v>104398500</v>
       </c>
       <c r="E8" s="3">
-        <v>106248900</v>
+        <v>103125200</v>
       </c>
       <c r="F8" s="3">
-        <v>101644200</v>
+        <v>103642300</v>
       </c>
       <c r="G8" s="3">
-        <v>95892700</v>
+        <v>99150600</v>
       </c>
       <c r="H8" s="3">
-        <v>93478500</v>
+        <v>93540200</v>
       </c>
       <c r="I8" s="3">
-        <v>90417800</v>
+        <v>91185200</v>
       </c>
       <c r="J8" s="3">
+        <v>88199600</v>
+      </c>
+      <c r="K8" s="3">
         <v>80408100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78360300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19282700</v>
+        <v>10156200</v>
       </c>
       <c r="E9" s="3">
-        <v>20340600</v>
+        <v>18809600</v>
       </c>
       <c r="F9" s="3">
-        <v>21265700</v>
+        <v>19841600</v>
       </c>
       <c r="G9" s="3">
-        <v>18886700</v>
+        <v>20744000</v>
       </c>
       <c r="H9" s="3">
-        <v>16333800</v>
+        <v>18423400</v>
       </c>
       <c r="I9" s="3">
-        <v>15221500</v>
+        <v>15933000</v>
       </c>
       <c r="J9" s="3">
+        <v>14848100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5028800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4262500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>86436100</v>
+        <v>94242300</v>
       </c>
       <c r="E10" s="3">
-        <v>85908400</v>
+        <v>84315500</v>
       </c>
       <c r="F10" s="3">
-        <v>80378500</v>
+        <v>83800800</v>
       </c>
       <c r="G10" s="3">
-        <v>77006000</v>
+        <v>78406600</v>
       </c>
       <c r="H10" s="3">
-        <v>77144700</v>
+        <v>75116800</v>
       </c>
       <c r="I10" s="3">
-        <v>75196300</v>
+        <v>75252200</v>
       </c>
       <c r="J10" s="3">
+        <v>73351500</v>
+      </c>
+      <c r="K10" s="3">
         <v>75379200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74097800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,19 +824,20 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>6313300</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>5454500</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>6158400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5320700</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>179400</v>
+        <v>440300</v>
       </c>
       <c r="E14" s="3">
-        <v>1806800</v>
+        <v>175000</v>
       </c>
       <c r="F14" s="3">
-        <v>1035400</v>
+        <v>1762500</v>
       </c>
       <c r="G14" s="3">
-        <v>1092500</v>
+        <v>1010000</v>
       </c>
       <c r="H14" s="3">
-        <v>570600</v>
+        <v>1065700</v>
       </c>
       <c r="I14" s="3">
-        <v>297600</v>
+        <v>556600</v>
       </c>
       <c r="J14" s="3">
+        <v>290300</v>
+      </c>
+      <c r="K14" s="3">
         <v>404300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>868600</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22118000</v>
+        <v>25587200</v>
       </c>
       <c r="E15" s="3">
-        <v>21564300</v>
+        <v>21575400</v>
       </c>
       <c r="F15" s="3">
-        <v>19884700</v>
+        <v>21035300</v>
       </c>
       <c r="G15" s="3">
-        <v>19672000</v>
+        <v>19396900</v>
       </c>
       <c r="H15" s="3">
-        <v>17636100</v>
+        <v>19189400</v>
       </c>
       <c r="I15" s="3">
-        <v>15033400</v>
+        <v>17203500</v>
       </c>
       <c r="J15" s="3">
+        <v>14664600</v>
+      </c>
+      <c r="K15" s="3">
         <v>14479400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14420600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88302200</v>
+        <v>88562200</v>
       </c>
       <c r="E17" s="3">
-        <v>89013300</v>
+        <v>86135900</v>
       </c>
       <c r="F17" s="3">
-        <v>84701000</v>
+        <v>86829500</v>
       </c>
       <c r="G17" s="3">
-        <v>81125500</v>
+        <v>82623000</v>
       </c>
       <c r="H17" s="3">
-        <v>76645400</v>
+        <v>79135200</v>
       </c>
       <c r="I17" s="3">
-        <v>70954900</v>
+        <v>74765100</v>
       </c>
       <c r="J17" s="3">
+        <v>69214100</v>
+      </c>
+      <c r="K17" s="3">
         <v>58811200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55906000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17416600</v>
+        <v>15836300</v>
       </c>
       <c r="E18" s="3">
-        <v>17235700</v>
+        <v>16989300</v>
       </c>
       <c r="F18" s="3">
-        <v>16943300</v>
+        <v>16812800</v>
       </c>
       <c r="G18" s="3">
-        <v>14767200</v>
+        <v>16527600</v>
       </c>
       <c r="H18" s="3">
-        <v>16833100</v>
+        <v>14405000</v>
       </c>
       <c r="I18" s="3">
-        <v>19462900</v>
+        <v>16420100</v>
       </c>
       <c r="J18" s="3">
+        <v>18985400</v>
+      </c>
+      <c r="K18" s="3">
         <v>21596900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22454300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4684600</v>
+        <v>4509900</v>
       </c>
       <c r="E20" s="3">
-        <v>4048900</v>
+        <v>4569700</v>
       </c>
       <c r="F20" s="3">
-        <v>3817900</v>
+        <v>3949500</v>
       </c>
       <c r="G20" s="3">
-        <v>5920400</v>
+        <v>3724200</v>
       </c>
       <c r="H20" s="3">
-        <v>3718300</v>
+        <v>5775200</v>
       </c>
       <c r="I20" s="3">
-        <v>3337500</v>
+        <v>3627100</v>
       </c>
       <c r="J20" s="3">
+        <v>3255600</v>
+      </c>
+      <c r="K20" s="3">
         <v>3037200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2352000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>44211500</v>
+        <v>45851200</v>
       </c>
       <c r="E21" s="3">
-        <v>42841400</v>
+        <v>43065000</v>
       </c>
       <c r="F21" s="3">
-        <v>40638900</v>
+        <v>41730000</v>
       </c>
       <c r="G21" s="3">
-        <v>40352800</v>
+        <v>39586300</v>
       </c>
       <c r="H21" s="3">
-        <v>38181300</v>
+        <v>39307800</v>
       </c>
       <c r="I21" s="3">
-        <v>37828600</v>
+        <v>37195300</v>
       </c>
       <c r="J21" s="3">
+        <v>36858500</v>
+      </c>
+      <c r="K21" s="3">
         <v>39108500</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20400</v>
+        <v>453300</v>
       </c>
       <c r="E22" s="3">
-        <v>29800</v>
+        <v>19900</v>
       </c>
       <c r="F22" s="3">
-        <v>33700</v>
+        <v>29100</v>
       </c>
       <c r="G22" s="3">
-        <v>64700</v>
+        <v>32900</v>
       </c>
       <c r="H22" s="3">
-        <v>102300</v>
+        <v>63100</v>
       </c>
       <c r="I22" s="3">
-        <v>47500</v>
+        <v>99800</v>
       </c>
       <c r="J22" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K22" s="3">
         <v>56000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>83900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22080900</v>
+        <v>19892900</v>
       </c>
       <c r="E23" s="3">
-        <v>21254700</v>
+        <v>21539100</v>
       </c>
       <c r="F23" s="3">
-        <v>20727400</v>
+        <v>20733300</v>
       </c>
       <c r="G23" s="3">
-        <v>20623000</v>
+        <v>20218900</v>
       </c>
       <c r="H23" s="3">
-        <v>20449100</v>
+        <v>20117000</v>
       </c>
       <c r="I23" s="3">
-        <v>22752900</v>
+        <v>19947400</v>
       </c>
       <c r="J23" s="3">
+        <v>22194700</v>
+      </c>
+      <c r="K23" s="3">
         <v>24578100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24722400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5157200</v>
+        <v>4946500</v>
       </c>
       <c r="E24" s="3">
-        <v>4838600</v>
+        <v>5030700</v>
       </c>
       <c r="F24" s="3">
-        <v>5111200</v>
+        <v>4719900</v>
       </c>
       <c r="G24" s="3">
-        <v>5033100</v>
+        <v>4985800</v>
       </c>
       <c r="H24" s="3">
-        <v>4760500</v>
+        <v>4909700</v>
       </c>
       <c r="I24" s="3">
-        <v>5276600</v>
+        <v>4643700</v>
       </c>
       <c r="J24" s="3">
+        <v>5147200</v>
+      </c>
+      <c r="K24" s="3">
         <v>6014500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6025900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16923600</v>
+        <v>14946500</v>
       </c>
       <c r="E26" s="3">
-        <v>16416100</v>
+        <v>16508400</v>
       </c>
       <c r="F26" s="3">
-        <v>15616200</v>
+        <v>16013400</v>
       </c>
       <c r="G26" s="3">
-        <v>15589800</v>
+        <v>15233100</v>
       </c>
       <c r="H26" s="3">
-        <v>15688500</v>
+        <v>15207400</v>
       </c>
       <c r="I26" s="3">
-        <v>17476300</v>
+        <v>15303600</v>
       </c>
       <c r="J26" s="3">
+        <v>17047500</v>
+      </c>
+      <c r="K26" s="3">
         <v>18563600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18696500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16899200</v>
+        <v>14925500</v>
       </c>
       <c r="E27" s="3">
-        <v>16396800</v>
+        <v>16484600</v>
       </c>
       <c r="F27" s="3">
-        <v>15602200</v>
+        <v>15994500</v>
       </c>
       <c r="G27" s="3">
-        <v>15573200</v>
+        <v>15219400</v>
       </c>
       <c r="H27" s="3">
-        <v>15670600</v>
+        <v>15191100</v>
       </c>
       <c r="I27" s="3">
-        <v>17460400</v>
+        <v>15286200</v>
       </c>
       <c r="J27" s="3">
+        <v>17032000</v>
+      </c>
+      <c r="K27" s="3">
         <v>18548200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18680400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4684600</v>
+        <v>-4509900</v>
       </c>
       <c r="E32" s="3">
-        <v>-4048900</v>
+        <v>-4569700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3817900</v>
+        <v>-3949500</v>
       </c>
       <c r="G32" s="3">
-        <v>-5920400</v>
+        <v>-3724200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3718300</v>
+        <v>-5775200</v>
       </c>
       <c r="I32" s="3">
-        <v>-3337500</v>
+        <v>-3627100</v>
       </c>
       <c r="J32" s="3">
+        <v>-3255600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3037200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2352000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16899200</v>
+        <v>14925500</v>
       </c>
       <c r="E33" s="3">
-        <v>16396800</v>
+        <v>16484600</v>
       </c>
       <c r="F33" s="3">
-        <v>15602200</v>
+        <v>15994500</v>
       </c>
       <c r="G33" s="3">
-        <v>15573200</v>
+        <v>15219400</v>
       </c>
       <c r="H33" s="3">
-        <v>15670600</v>
+        <v>15191100</v>
       </c>
       <c r="I33" s="3">
-        <v>17460400</v>
+        <v>15286200</v>
       </c>
       <c r="J33" s="3">
+        <v>17032000</v>
+      </c>
+      <c r="K33" s="3">
         <v>18548200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18680400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16899200</v>
+        <v>14925500</v>
       </c>
       <c r="E35" s="3">
-        <v>16396800</v>
+        <v>16484600</v>
       </c>
       <c r="F35" s="3">
-        <v>15602200</v>
+        <v>15994500</v>
       </c>
       <c r="G35" s="3">
-        <v>15573200</v>
+        <v>15219400</v>
       </c>
       <c r="H35" s="3">
-        <v>15670600</v>
+        <v>15191100</v>
       </c>
       <c r="I35" s="3">
-        <v>17460400</v>
+        <v>15286200</v>
       </c>
       <c r="J35" s="3">
+        <v>17032000</v>
+      </c>
+      <c r="K35" s="3">
         <v>18548200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18680400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8221700</v>
+        <v>24658800</v>
       </c>
       <c r="E41" s="3">
-        <v>17308900</v>
+        <v>8031400</v>
       </c>
       <c r="F41" s="3">
-        <v>12972500</v>
+        <v>16908300</v>
       </c>
       <c r="G41" s="3">
-        <v>11455700</v>
+        <v>12672300</v>
       </c>
       <c r="H41" s="3">
-        <v>10590500</v>
+        <v>11190700</v>
       </c>
       <c r="I41" s="3">
-        <v>6446700</v>
+        <v>10345500</v>
       </c>
       <c r="J41" s="3">
+        <v>6297500</v>
+      </c>
+      <c r="K41" s="3">
         <v>10173600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12801700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52845400</v>
+        <v>34347300</v>
       </c>
       <c r="E42" s="3">
-        <v>49500700</v>
+        <v>51622600</v>
       </c>
       <c r="F42" s="3">
-        <v>52685000</v>
+        <v>48355300</v>
       </c>
       <c r="G42" s="3">
-        <v>49141500</v>
+        <v>51465900</v>
       </c>
       <c r="H42" s="3">
-        <v>51008100</v>
+        <v>48004400</v>
       </c>
       <c r="I42" s="3">
-        <v>53801700</v>
+        <v>49827900</v>
       </c>
       <c r="J42" s="3">
+        <v>52556800</v>
+      </c>
+      <c r="K42" s="3">
         <v>47634900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36610800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10565000</v>
+        <v>10436000</v>
       </c>
       <c r="E43" s="3">
-        <v>8191800</v>
+        <v>10320500</v>
       </c>
       <c r="F43" s="3">
-        <v>14808300</v>
+        <v>8002300</v>
       </c>
       <c r="G43" s="3">
-        <v>6445400</v>
+        <v>14465600</v>
       </c>
       <c r="H43" s="3">
-        <v>6949600</v>
+        <v>6296300</v>
       </c>
       <c r="I43" s="3">
-        <v>3773100</v>
+        <v>6788800</v>
       </c>
       <c r="J43" s="3">
+        <v>3685800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2953100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4290400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1270800</v>
+        <v>1028500</v>
       </c>
       <c r="E44" s="3">
-        <v>1466700</v>
+        <v>1241400</v>
       </c>
       <c r="F44" s="3">
-        <v>1267200</v>
+        <v>1432700</v>
       </c>
       <c r="G44" s="3">
-        <v>1433900</v>
+        <v>1237900</v>
       </c>
       <c r="H44" s="3">
-        <v>1333200</v>
+        <v>1400800</v>
       </c>
       <c r="I44" s="3">
-        <v>1313100</v>
+        <v>1302400</v>
       </c>
       <c r="J44" s="3">
+        <v>1282700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1032300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1179000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3875500</v>
+        <v>3795400</v>
       </c>
       <c r="E45" s="3">
-        <v>3621900</v>
+        <v>3785900</v>
       </c>
       <c r="F45" s="3">
-        <v>2438900</v>
+        <v>3538100</v>
       </c>
       <c r="G45" s="3">
-        <v>1641700</v>
+        <v>2382400</v>
       </c>
       <c r="H45" s="3">
-        <v>2426700</v>
+        <v>1603700</v>
       </c>
       <c r="I45" s="3">
-        <v>1697700</v>
+        <v>2370500</v>
       </c>
       <c r="J45" s="3">
+        <v>1658400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2283200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1912400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76778400</v>
+        <v>74266000</v>
       </c>
       <c r="E46" s="3">
-        <v>80090000</v>
+        <v>75001900</v>
       </c>
       <c r="F46" s="3">
-        <v>84171800</v>
+        <v>78236800</v>
       </c>
       <c r="G46" s="3">
-        <v>70118200</v>
+        <v>82224200</v>
       </c>
       <c r="H46" s="3">
-        <v>69864000</v>
+        <v>68495800</v>
       </c>
       <c r="I46" s="3">
-        <v>67032300</v>
+        <v>68247400</v>
       </c>
       <c r="J46" s="3">
+        <v>65481200</v>
+      </c>
+      <c r="K46" s="3">
         <v>64077200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56794300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20935500</v>
+        <v>21828700</v>
       </c>
       <c r="E47" s="3">
-        <v>19017300</v>
+        <v>20451000</v>
       </c>
       <c r="F47" s="3">
-        <v>17802100</v>
+        <v>18577200</v>
       </c>
       <c r="G47" s="3">
-        <v>24775100</v>
+        <v>17390200</v>
       </c>
       <c r="H47" s="3">
-        <v>10126700</v>
+        <v>24201800</v>
       </c>
       <c r="I47" s="3">
-        <v>7757500</v>
+        <v>9892400</v>
       </c>
       <c r="J47" s="3">
+        <v>7578000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6955300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6519400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105985000</v>
+        <v>114527000</v>
       </c>
       <c r="E48" s="3">
-        <v>104187000</v>
+        <v>103533000</v>
       </c>
       <c r="F48" s="3">
-        <v>102188000</v>
+        <v>101776000</v>
       </c>
       <c r="G48" s="3">
-        <v>96654300</v>
+        <v>99823200</v>
       </c>
       <c r="H48" s="3">
-        <v>100455000</v>
+        <v>94417800</v>
       </c>
       <c r="I48" s="3">
-        <v>80955300</v>
+        <v>98130600</v>
       </c>
       <c r="J48" s="3">
+        <v>79082100</v>
+      </c>
+      <c r="K48" s="3">
         <v>69733600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68921600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5446900</v>
+        <v>5440700</v>
       </c>
       <c r="E49" s="3">
-        <v>5317900</v>
+        <v>5320900</v>
       </c>
       <c r="F49" s="3">
-        <v>5316100</v>
+        <v>5194900</v>
       </c>
       <c r="G49" s="3">
-        <v>5181200</v>
+        <v>5193100</v>
       </c>
       <c r="H49" s="3">
-        <v>5183900</v>
+        <v>5061300</v>
       </c>
       <c r="I49" s="3">
-        <v>5446100</v>
+        <v>5064000</v>
       </c>
       <c r="J49" s="3">
+        <v>5320100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5426100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5596800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11226300</v>
+        <v>12291600</v>
       </c>
       <c r="E52" s="3">
-        <v>9780900</v>
+        <v>10966500</v>
       </c>
       <c r="F52" s="3">
-        <v>8754400</v>
+        <v>9554600</v>
       </c>
       <c r="G52" s="3">
-        <v>8145500</v>
+        <v>8551900</v>
       </c>
       <c r="H52" s="3">
-        <v>7786400</v>
+        <v>7957000</v>
       </c>
       <c r="I52" s="3">
-        <v>6306200</v>
+        <v>7606200</v>
       </c>
       <c r="J52" s="3">
+        <v>6160300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4764400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3537100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>220372000</v>
+        <v>228354000</v>
       </c>
       <c r="E54" s="3">
-        <v>218393000</v>
+        <v>215273000</v>
       </c>
       <c r="F54" s="3">
-        <v>218232000</v>
+        <v>213339000</v>
       </c>
       <c r="G54" s="3">
-        <v>204874000</v>
+        <v>213183000</v>
       </c>
       <c r="H54" s="3">
-        <v>193416000</v>
+        <v>200134000</v>
       </c>
       <c r="I54" s="3">
-        <v>167497000</v>
+        <v>188941000</v>
       </c>
       <c r="J54" s="3">
+        <v>163622000</v>
+      </c>
+      <c r="K54" s="3">
         <v>150957000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141369000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,133 +2137,146 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27844900</v>
+        <v>23506800</v>
       </c>
       <c r="E57" s="3">
-        <v>33929000</v>
+        <v>27200600</v>
       </c>
       <c r="F57" s="3">
-        <v>36163300</v>
+        <v>33143900</v>
       </c>
       <c r="G57" s="3">
-        <v>35041300</v>
+        <v>35326500</v>
       </c>
       <c r="H57" s="3">
-        <v>32749500</v>
+        <v>34230400</v>
       </c>
       <c r="I57" s="3">
-        <v>25039700</v>
+        <v>31991700</v>
       </c>
       <c r="J57" s="3">
+        <v>24460300</v>
+      </c>
+      <c r="K57" s="3">
         <v>17942900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17494900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>3177100</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>717100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>700500</v>
       </c>
       <c r="H58" s="3">
-        <v>153200</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>149700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K58" s="3">
         <v>9800</v>
       </c>
-      <c r="J58" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40221700</v>
+        <v>38079400</v>
       </c>
       <c r="E59" s="3">
-        <v>42112800</v>
+        <v>39291100</v>
       </c>
       <c r="F59" s="3">
-        <v>40080700</v>
+        <v>41138400</v>
       </c>
       <c r="G59" s="3">
-        <v>36847700</v>
+        <v>39153300</v>
       </c>
       <c r="H59" s="3">
-        <v>32020900</v>
+        <v>35995100</v>
       </c>
       <c r="I59" s="3">
-        <v>28169100</v>
+        <v>31279900</v>
       </c>
       <c r="J59" s="3">
+        <v>27517300</v>
+      </c>
+      <c r="K59" s="3">
         <v>24775100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23047200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68066600</v>
+        <v>64763300</v>
       </c>
       <c r="E60" s="3">
-        <v>76041800</v>
+        <v>66491600</v>
       </c>
       <c r="F60" s="3">
-        <v>76961100</v>
+        <v>74282300</v>
       </c>
       <c r="G60" s="3">
-        <v>71888900</v>
+        <v>75180300</v>
       </c>
       <c r="H60" s="3">
-        <v>64923600</v>
+        <v>70225500</v>
       </c>
       <c r="I60" s="3">
-        <v>53218600</v>
+        <v>63421300</v>
       </c>
       <c r="J60" s="3">
+        <v>51987200</v>
+      </c>
+      <c r="K60" s="3">
         <v>42727800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40552100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7237200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2143,53 +2285,59 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>716700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>716300</v>
+        <v>700100</v>
       </c>
       <c r="I61" s="3">
-        <v>715800</v>
+        <v>699700</v>
       </c>
       <c r="J61" s="3">
+        <v>699300</v>
+      </c>
+      <c r="K61" s="3">
         <v>715400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>739700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>818300</v>
+        <v>1156200</v>
       </c>
       <c r="E62" s="3">
-        <v>466300</v>
+        <v>799300</v>
       </c>
       <c r="F62" s="3">
-        <v>354000</v>
+        <v>455500</v>
       </c>
       <c r="G62" s="3">
-        <v>214400</v>
+        <v>345800</v>
       </c>
       <c r="H62" s="3">
-        <v>225000</v>
+        <v>209400</v>
       </c>
       <c r="I62" s="3">
-        <v>109900</v>
+        <v>219800</v>
       </c>
       <c r="J62" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3446100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3548600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69373300</v>
+        <v>73649500</v>
       </c>
       <c r="E66" s="3">
-        <v>76973700</v>
+        <v>67768100</v>
       </c>
       <c r="F66" s="3">
-        <v>77762300</v>
+        <v>75192600</v>
       </c>
       <c r="G66" s="3">
-        <v>73255000</v>
+        <v>75962900</v>
       </c>
       <c r="H66" s="3">
-        <v>66161400</v>
+        <v>71559900</v>
       </c>
       <c r="I66" s="3">
-        <v>54324300</v>
+        <v>64630400</v>
       </c>
       <c r="J66" s="3">
+        <v>53067200</v>
+      </c>
+      <c r="K66" s="3">
         <v>47156400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45041500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93153100</v>
+        <v>98101600</v>
       </c>
       <c r="E72" s="3">
-        <v>83739500</v>
+        <v>90997600</v>
       </c>
       <c r="F72" s="3">
-        <v>82684900</v>
+        <v>81801900</v>
       </c>
       <c r="G72" s="3">
-        <v>73945400</v>
+        <v>80771700</v>
       </c>
       <c r="H72" s="3">
-        <v>69867200</v>
+        <v>72234400</v>
       </c>
       <c r="I72" s="3">
-        <v>57390300</v>
+        <v>68250500</v>
       </c>
       <c r="J72" s="3">
+        <v>56062300</v>
+      </c>
+      <c r="K72" s="3">
         <v>48153500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38850500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>150999000</v>
+        <v>154705000</v>
       </c>
       <c r="E76" s="3">
-        <v>141419000</v>
+        <v>147505000</v>
       </c>
       <c r="F76" s="3">
-        <v>140470000</v>
+        <v>138147000</v>
       </c>
       <c r="G76" s="3">
-        <v>131619000</v>
+        <v>137220000</v>
       </c>
       <c r="H76" s="3">
-        <v>127255000</v>
+        <v>128574000</v>
       </c>
       <c r="I76" s="3">
-        <v>113173000</v>
+        <v>124310000</v>
       </c>
       <c r="J76" s="3">
+        <v>110554000</v>
+      </c>
+      <c r="K76" s="3">
         <v>103800000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96327600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16899200</v>
+        <v>14925500</v>
       </c>
       <c r="E81" s="3">
-        <v>16396800</v>
+        <v>16484600</v>
       </c>
       <c r="F81" s="3">
-        <v>15602200</v>
+        <v>15994500</v>
       </c>
       <c r="G81" s="3">
-        <v>15573200</v>
+        <v>15219400</v>
       </c>
       <c r="H81" s="3">
-        <v>15670600</v>
+        <v>15191100</v>
       </c>
       <c r="I81" s="3">
-        <v>17460400</v>
+        <v>15286200</v>
       </c>
       <c r="J81" s="3">
+        <v>17032000</v>
+      </c>
+      <c r="K81" s="3">
         <v>18548200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18680400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22118000</v>
+        <v>25587200</v>
       </c>
       <c r="E83" s="3">
-        <v>21564300</v>
+        <v>21575400</v>
       </c>
       <c r="F83" s="3">
-        <v>19884700</v>
+        <v>21035300</v>
       </c>
       <c r="G83" s="3">
-        <v>19672000</v>
+        <v>19396900</v>
       </c>
       <c r="H83" s="3">
-        <v>17636100</v>
+        <v>19189400</v>
       </c>
       <c r="I83" s="3">
-        <v>15033400</v>
+        <v>17203500</v>
       </c>
       <c r="J83" s="3">
+        <v>14664600</v>
+      </c>
+      <c r="K83" s="3">
         <v>14479400</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29578500</v>
+        <v>34652800</v>
       </c>
       <c r="E89" s="3">
-        <v>35226300</v>
+        <v>28852900</v>
       </c>
       <c r="F89" s="3">
-        <v>36401000</v>
+        <v>34362100</v>
       </c>
       <c r="G89" s="3">
-        <v>33730600</v>
+        <v>35508000</v>
       </c>
       <c r="H89" s="3">
-        <v>31054500</v>
+        <v>32903100</v>
       </c>
       <c r="I89" s="3">
-        <v>32280800</v>
+        <v>30292700</v>
       </c>
       <c r="J89" s="3">
+        <v>31488900</v>
+      </c>
+      <c r="K89" s="3">
         <v>33102100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33652900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27604800</v>
+        <v>-28323000</v>
       </c>
       <c r="E91" s="3">
-        <v>-27693800</v>
+        <v>-26927600</v>
       </c>
       <c r="F91" s="3">
-        <v>-27004200</v>
+        <v>-27014400</v>
       </c>
       <c r="G91" s="3">
-        <v>-24713400</v>
+        <v>-26341700</v>
       </c>
       <c r="H91" s="3">
-        <v>-25062100</v>
+        <v>-24107100</v>
       </c>
       <c r="I91" s="3">
-        <v>-19943300</v>
+        <v>-24447200</v>
       </c>
       <c r="J91" s="3">
+        <v>-19454000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17681300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18303600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30450900</v>
+        <v>-8986300</v>
       </c>
       <c r="E94" s="3">
-        <v>-15285400</v>
+        <v>-29703900</v>
       </c>
       <c r="F94" s="3">
-        <v>-27910200</v>
+        <v>-14910400</v>
       </c>
       <c r="G94" s="3">
-        <v>-20480800</v>
+        <v>-27225400</v>
       </c>
       <c r="H94" s="3">
-        <v>-21698500</v>
+        <v>-19978300</v>
       </c>
       <c r="I94" s="3">
-        <v>-24603200</v>
+        <v>-21166200</v>
       </c>
       <c r="J94" s="3">
+        <v>-23999600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27429900</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-8598800</v>
+        <v>-7455000</v>
       </c>
       <c r="E96" s="3">
-        <v>-15214000</v>
+        <v>-8387800</v>
       </c>
       <c r="F96" s="3">
-        <v>-6742300</v>
+        <v>-14840800</v>
       </c>
       <c r="G96" s="3">
-        <v>-6874400</v>
+        <v>-6576900</v>
       </c>
       <c r="H96" s="3">
-        <v>-7306600</v>
+        <v>-6705800</v>
       </c>
       <c r="I96" s="3">
-        <v>-7961800</v>
+        <v>-7127300</v>
       </c>
       <c r="J96" s="3">
+        <v>-7766500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7952400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7802700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8296000</v>
+        <v>-9083500</v>
       </c>
       <c r="E100" s="3">
-        <v>-15529000</v>
+        <v>-8092500</v>
       </c>
       <c r="F100" s="3">
-        <v>-7024500</v>
+        <v>-15148000</v>
       </c>
       <c r="G100" s="3">
-        <v>-12412500</v>
+        <v>-6852200</v>
       </c>
       <c r="H100" s="3">
-        <v>-6102200</v>
+        <v>-12107900</v>
       </c>
       <c r="I100" s="3">
-        <v>-11396800</v>
+        <v>-5952500</v>
       </c>
       <c r="J100" s="3">
+        <v>-11117200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7876600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>81200</v>
+        <v>20600</v>
       </c>
       <c r="E101" s="3">
-        <v>-75600</v>
+        <v>79200</v>
       </c>
       <c r="F101" s="3">
-        <v>50400</v>
+        <v>-73800</v>
       </c>
       <c r="G101" s="3">
-        <v>27800</v>
+        <v>49100</v>
       </c>
       <c r="H101" s="3">
-        <v>-6600</v>
+        <v>27200</v>
       </c>
       <c r="I101" s="3">
-        <v>-7700</v>
+        <v>-6400</v>
       </c>
       <c r="J101" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9087200</v>
+        <v>16603600</v>
       </c>
       <c r="E102" s="3">
-        <v>4336400</v>
+        <v>-8864200</v>
       </c>
       <c r="F102" s="3">
-        <v>1516700</v>
+        <v>4230000</v>
       </c>
       <c r="G102" s="3">
-        <v>865200</v>
+        <v>1479500</v>
       </c>
       <c r="H102" s="3">
-        <v>3247200</v>
+        <v>844000</v>
       </c>
       <c r="I102" s="3">
-        <v>-3726900</v>
+        <v>3167600</v>
       </c>
       <c r="J102" s="3">
+        <v>-3635500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2202800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-190600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CHL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CHL_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>104398500</v>
+        <v>108329500</v>
       </c>
       <c r="E8" s="3">
-        <v>103125200</v>
+        <v>107008200</v>
       </c>
       <c r="F8" s="3">
-        <v>103642300</v>
+        <v>107544800</v>
       </c>
       <c r="G8" s="3">
-        <v>99150600</v>
+        <v>102884000</v>
       </c>
       <c r="H8" s="3">
-        <v>93540200</v>
+        <v>97062300</v>
       </c>
       <c r="I8" s="3">
-        <v>91185200</v>
+        <v>94618700</v>
       </c>
       <c r="J8" s="3">
-        <v>88199600</v>
+        <v>91520600</v>
       </c>
       <c r="K8" s="3">
         <v>80408100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10156200</v>
+        <v>10538600</v>
       </c>
       <c r="E9" s="3">
-        <v>18809600</v>
+        <v>19517900</v>
       </c>
       <c r="F9" s="3">
-        <v>19841600</v>
+        <v>20588700</v>
       </c>
       <c r="G9" s="3">
-        <v>20744000</v>
+        <v>21525100</v>
       </c>
       <c r="H9" s="3">
-        <v>18423400</v>
+        <v>19117100</v>
       </c>
       <c r="I9" s="3">
-        <v>15933000</v>
+        <v>16533000</v>
       </c>
       <c r="J9" s="3">
-        <v>14848100</v>
+        <v>15407200</v>
       </c>
       <c r="K9" s="3">
         <v>5028800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>94242300</v>
+        <v>97790900</v>
       </c>
       <c r="E10" s="3">
-        <v>84315500</v>
+        <v>87490300</v>
       </c>
       <c r="F10" s="3">
-        <v>83800800</v>
+        <v>86956200</v>
       </c>
       <c r="G10" s="3">
-        <v>78406600</v>
+        <v>81358900</v>
       </c>
       <c r="H10" s="3">
-        <v>75116800</v>
+        <v>77945200</v>
       </c>
       <c r="I10" s="3">
-        <v>75252200</v>
+        <v>78085700</v>
       </c>
       <c r="J10" s="3">
-        <v>73351500</v>
+        <v>76113400</v>
       </c>
       <c r="K10" s="3">
         <v>75379200</v>
@@ -834,10 +834,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>6158400</v>
+        <v>6390300</v>
       </c>
       <c r="F12" s="3">
-        <v>5320700</v>
+        <v>5521100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>440300</v>
+        <v>432100</v>
       </c>
       <c r="E14" s="3">
-        <v>175000</v>
+        <v>181500</v>
       </c>
       <c r="F14" s="3">
-        <v>1762500</v>
+        <v>1828900</v>
       </c>
       <c r="G14" s="3">
-        <v>1010000</v>
+        <v>1048000</v>
       </c>
       <c r="H14" s="3">
-        <v>1065700</v>
+        <v>1105800</v>
       </c>
       <c r="I14" s="3">
-        <v>556600</v>
+        <v>577600</v>
       </c>
       <c r="J14" s="3">
-        <v>290300</v>
+        <v>301200</v>
       </c>
       <c r="K14" s="3">
         <v>404300</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25587200</v>
+        <v>26550700</v>
       </c>
       <c r="E15" s="3">
-        <v>21575400</v>
+        <v>22387800</v>
       </c>
       <c r="F15" s="3">
-        <v>21035300</v>
+        <v>21827300</v>
       </c>
       <c r="G15" s="3">
-        <v>19396900</v>
+        <v>20127300</v>
       </c>
       <c r="H15" s="3">
-        <v>19189400</v>
+        <v>19911900</v>
       </c>
       <c r="I15" s="3">
-        <v>17203500</v>
+        <v>17851200</v>
       </c>
       <c r="J15" s="3">
-        <v>14664600</v>
+        <v>15216800</v>
       </c>
       <c r="K15" s="3">
         <v>14479400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88562200</v>
+        <v>91896900</v>
       </c>
       <c r="E17" s="3">
-        <v>86135900</v>
+        <v>89379200</v>
       </c>
       <c r="F17" s="3">
-        <v>86829500</v>
+        <v>90098900</v>
       </c>
       <c r="G17" s="3">
-        <v>82623000</v>
+        <v>85734100</v>
       </c>
       <c r="H17" s="3">
-        <v>79135200</v>
+        <v>82114900</v>
       </c>
       <c r="I17" s="3">
-        <v>74765100</v>
+        <v>77580300</v>
       </c>
       <c r="J17" s="3">
-        <v>69214100</v>
+        <v>71820300</v>
       </c>
       <c r="K17" s="3">
         <v>58811200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15836300</v>
+        <v>16432600</v>
       </c>
       <c r="E18" s="3">
-        <v>16989300</v>
+        <v>17629000</v>
       </c>
       <c r="F18" s="3">
-        <v>16812800</v>
+        <v>17445900</v>
       </c>
       <c r="G18" s="3">
-        <v>16527600</v>
+        <v>17149900</v>
       </c>
       <c r="H18" s="3">
-        <v>14405000</v>
+        <v>14947400</v>
       </c>
       <c r="I18" s="3">
-        <v>16420100</v>
+        <v>17038400</v>
       </c>
       <c r="J18" s="3">
-        <v>18985400</v>
+        <v>19700300</v>
       </c>
       <c r="K18" s="3">
         <v>21596900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4509900</v>
+        <v>4679700</v>
       </c>
       <c r="E20" s="3">
-        <v>4569700</v>
+        <v>4741800</v>
       </c>
       <c r="F20" s="3">
-        <v>3949500</v>
+        <v>4098200</v>
       </c>
       <c r="G20" s="3">
-        <v>3724200</v>
+        <v>3864400</v>
       </c>
       <c r="H20" s="3">
-        <v>5775200</v>
+        <v>5992600</v>
       </c>
       <c r="I20" s="3">
-        <v>3627100</v>
+        <v>3763600</v>
       </c>
       <c r="J20" s="3">
-        <v>3255600</v>
+        <v>3378200</v>
       </c>
       <c r="K20" s="3">
         <v>3037200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45851200</v>
+        <v>47562500</v>
       </c>
       <c r="E21" s="3">
-        <v>43065000</v>
+        <v>44673800</v>
       </c>
       <c r="F21" s="3">
-        <v>41730000</v>
+        <v>43288800</v>
       </c>
       <c r="G21" s="3">
-        <v>39586300</v>
+        <v>41065400</v>
       </c>
       <c r="H21" s="3">
-        <v>39307800</v>
+        <v>40776500</v>
       </c>
       <c r="I21" s="3">
-        <v>37195300</v>
+        <v>38585700</v>
       </c>
       <c r="J21" s="3">
-        <v>36858500</v>
+        <v>38237600</v>
       </c>
       <c r="K21" s="3">
         <v>39108500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>453300</v>
+        <v>470400</v>
       </c>
       <c r="E22" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="F22" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="G22" s="3">
-        <v>32900</v>
+        <v>34100</v>
       </c>
       <c r="H22" s="3">
-        <v>63100</v>
+        <v>65500</v>
       </c>
       <c r="I22" s="3">
-        <v>99800</v>
+        <v>103500</v>
       </c>
       <c r="J22" s="3">
-        <v>46300</v>
+        <v>48100</v>
       </c>
       <c r="K22" s="3">
         <v>56000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19892900</v>
+        <v>20642000</v>
       </c>
       <c r="E23" s="3">
-        <v>21539100</v>
+        <v>22350200</v>
       </c>
       <c r="F23" s="3">
-        <v>20733300</v>
+        <v>21513900</v>
       </c>
       <c r="G23" s="3">
-        <v>20218900</v>
+        <v>20980200</v>
       </c>
       <c r="H23" s="3">
-        <v>20117000</v>
+        <v>20874500</v>
       </c>
       <c r="I23" s="3">
-        <v>19947400</v>
+        <v>20698500</v>
       </c>
       <c r="J23" s="3">
-        <v>22194700</v>
+        <v>23030400</v>
       </c>
       <c r="K23" s="3">
         <v>24578100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4946500</v>
+        <v>5132700</v>
       </c>
       <c r="E24" s="3">
-        <v>5030700</v>
+        <v>5220100</v>
       </c>
       <c r="F24" s="3">
-        <v>4719900</v>
+        <v>4897600</v>
       </c>
       <c r="G24" s="3">
-        <v>4985800</v>
+        <v>5173500</v>
       </c>
       <c r="H24" s="3">
-        <v>4909700</v>
+        <v>5094500</v>
       </c>
       <c r="I24" s="3">
-        <v>4643700</v>
+        <v>4818600</v>
       </c>
       <c r="J24" s="3">
-        <v>5147200</v>
+        <v>5341000</v>
       </c>
       <c r="K24" s="3">
         <v>6014500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14946500</v>
+        <v>15509300</v>
       </c>
       <c r="E26" s="3">
-        <v>16508400</v>
+        <v>17130000</v>
       </c>
       <c r="F26" s="3">
-        <v>16013400</v>
+        <v>16616300</v>
       </c>
       <c r="G26" s="3">
-        <v>15233100</v>
+        <v>15806700</v>
       </c>
       <c r="H26" s="3">
-        <v>15207400</v>
+        <v>15780000</v>
       </c>
       <c r="I26" s="3">
-        <v>15303600</v>
+        <v>15879900</v>
       </c>
       <c r="J26" s="3">
-        <v>17047500</v>
+        <v>17689400</v>
       </c>
       <c r="K26" s="3">
         <v>18563600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14925500</v>
+        <v>15487500</v>
       </c>
       <c r="E27" s="3">
-        <v>16484600</v>
+        <v>17105300</v>
       </c>
       <c r="F27" s="3">
-        <v>15994500</v>
+        <v>16596700</v>
       </c>
       <c r="G27" s="3">
-        <v>15219400</v>
+        <v>15792500</v>
       </c>
       <c r="H27" s="3">
-        <v>15191100</v>
+        <v>15763100</v>
       </c>
       <c r="I27" s="3">
-        <v>15286200</v>
+        <v>15861700</v>
       </c>
       <c r="J27" s="3">
-        <v>17032000</v>
+        <v>17673300</v>
       </c>
       <c r="K27" s="3">
         <v>18548200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4509900</v>
+        <v>-4679700</v>
       </c>
       <c r="E32" s="3">
-        <v>-4569700</v>
+        <v>-4741800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3949500</v>
+        <v>-4098200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3724200</v>
+        <v>-3864400</v>
       </c>
       <c r="H32" s="3">
-        <v>-5775200</v>
+        <v>-5992600</v>
       </c>
       <c r="I32" s="3">
-        <v>-3627100</v>
+        <v>-3763600</v>
       </c>
       <c r="J32" s="3">
-        <v>-3255600</v>
+        <v>-3378200</v>
       </c>
       <c r="K32" s="3">
         <v>-3037200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14925500</v>
+        <v>15487500</v>
       </c>
       <c r="E33" s="3">
-        <v>16484600</v>
+        <v>17105300</v>
       </c>
       <c r="F33" s="3">
-        <v>15994500</v>
+        <v>16596700</v>
       </c>
       <c r="G33" s="3">
-        <v>15219400</v>
+        <v>15792500</v>
       </c>
       <c r="H33" s="3">
-        <v>15191100</v>
+        <v>15763100</v>
       </c>
       <c r="I33" s="3">
-        <v>15286200</v>
+        <v>15861700</v>
       </c>
       <c r="J33" s="3">
-        <v>17032000</v>
+        <v>17673300</v>
       </c>
       <c r="K33" s="3">
         <v>18548200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14925500</v>
+        <v>15487500</v>
       </c>
       <c r="E35" s="3">
-        <v>16484600</v>
+        <v>17105300</v>
       </c>
       <c r="F35" s="3">
-        <v>15994500</v>
+        <v>16596700</v>
       </c>
       <c r="G35" s="3">
-        <v>15219400</v>
+        <v>15792500</v>
       </c>
       <c r="H35" s="3">
-        <v>15191100</v>
+        <v>15763100</v>
       </c>
       <c r="I35" s="3">
-        <v>15286200</v>
+        <v>15861700</v>
       </c>
       <c r="J35" s="3">
-        <v>17032000</v>
+        <v>17673300</v>
       </c>
       <c r="K35" s="3">
         <v>18548200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24658800</v>
+        <v>25550700</v>
       </c>
       <c r="E41" s="3">
-        <v>8031400</v>
+        <v>8322000</v>
       </c>
       <c r="F41" s="3">
-        <v>16908300</v>
+        <v>17520000</v>
       </c>
       <c r="G41" s="3">
-        <v>12672300</v>
+        <v>13130700</v>
       </c>
       <c r="H41" s="3">
-        <v>11190700</v>
+        <v>11595500</v>
       </c>
       <c r="I41" s="3">
-        <v>10345500</v>
+        <v>10719700</v>
       </c>
       <c r="J41" s="3">
-        <v>6297500</v>
+        <v>6525300</v>
       </c>
       <c r="K41" s="3">
         <v>10173600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34347300</v>
+        <v>35589800</v>
       </c>
       <c r="E42" s="3">
-        <v>51622600</v>
+        <v>53490000</v>
       </c>
       <c r="F42" s="3">
-        <v>48355300</v>
+        <v>50104500</v>
       </c>
       <c r="G42" s="3">
-        <v>51465900</v>
+        <v>53327600</v>
       </c>
       <c r="H42" s="3">
-        <v>48004400</v>
+        <v>49740800</v>
       </c>
       <c r="I42" s="3">
-        <v>49827900</v>
+        <v>51630300</v>
       </c>
       <c r="J42" s="3">
-        <v>52556800</v>
+        <v>54457900</v>
       </c>
       <c r="K42" s="3">
         <v>47634900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10436000</v>
+        <v>10813500</v>
       </c>
       <c r="E43" s="3">
-        <v>10320500</v>
+        <v>10693900</v>
       </c>
       <c r="F43" s="3">
-        <v>8002300</v>
+        <v>8291800</v>
       </c>
       <c r="G43" s="3">
-        <v>14465600</v>
+        <v>14988900</v>
       </c>
       <c r="H43" s="3">
-        <v>6296300</v>
+        <v>6524000</v>
       </c>
       <c r="I43" s="3">
-        <v>6788800</v>
+        <v>7034400</v>
       </c>
       <c r="J43" s="3">
-        <v>3685800</v>
+        <v>3819100</v>
       </c>
       <c r="K43" s="3">
         <v>2953100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1028500</v>
+        <v>1065700</v>
       </c>
       <c r="E44" s="3">
-        <v>1241400</v>
+        <v>1286300</v>
       </c>
       <c r="F44" s="3">
-        <v>1432700</v>
+        <v>1484500</v>
       </c>
       <c r="G44" s="3">
-        <v>1237900</v>
+        <v>1282700</v>
       </c>
       <c r="H44" s="3">
-        <v>1400800</v>
+        <v>1451400</v>
       </c>
       <c r="I44" s="3">
-        <v>1302400</v>
+        <v>1349500</v>
       </c>
       <c r="J44" s="3">
-        <v>1282700</v>
+        <v>1329100</v>
       </c>
       <c r="K44" s="3">
         <v>1032300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3795400</v>
+        <v>3932700</v>
       </c>
       <c r="E45" s="3">
-        <v>3785900</v>
+        <v>3922800</v>
       </c>
       <c r="F45" s="3">
-        <v>3538100</v>
+        <v>3666000</v>
       </c>
       <c r="G45" s="3">
-        <v>2382400</v>
+        <v>2468600</v>
       </c>
       <c r="H45" s="3">
-        <v>1603700</v>
+        <v>1661700</v>
       </c>
       <c r="I45" s="3">
-        <v>2370500</v>
+        <v>2456300</v>
       </c>
       <c r="J45" s="3">
-        <v>1658400</v>
+        <v>1718400</v>
       </c>
       <c r="K45" s="3">
         <v>2283200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>74266000</v>
+        <v>76952400</v>
       </c>
       <c r="E46" s="3">
-        <v>75001900</v>
+        <v>77714900</v>
       </c>
       <c r="F46" s="3">
-        <v>78236800</v>
+        <v>81066800</v>
       </c>
       <c r="G46" s="3">
-        <v>82224200</v>
+        <v>85198500</v>
       </c>
       <c r="H46" s="3">
-        <v>68495800</v>
+        <v>70973500</v>
       </c>
       <c r="I46" s="3">
-        <v>68247400</v>
+        <v>70716100</v>
       </c>
       <c r="J46" s="3">
-        <v>65481200</v>
+        <v>67849900</v>
       </c>
       <c r="K46" s="3">
         <v>64077200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21828700</v>
+        <v>22618300</v>
       </c>
       <c r="E47" s="3">
-        <v>20451000</v>
+        <v>21190800</v>
       </c>
       <c r="F47" s="3">
-        <v>18577200</v>
+        <v>19249200</v>
       </c>
       <c r="G47" s="3">
-        <v>17390200</v>
+        <v>18019300</v>
       </c>
       <c r="H47" s="3">
-        <v>24201800</v>
+        <v>25077300</v>
       </c>
       <c r="I47" s="3">
-        <v>9892400</v>
+        <v>10250200</v>
       </c>
       <c r="J47" s="3">
-        <v>7578000</v>
+        <v>7852200</v>
       </c>
       <c r="K47" s="3">
         <v>6955300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114527000</v>
+        <v>118670000</v>
       </c>
       <c r="E48" s="3">
-        <v>103533000</v>
+        <v>107278000</v>
       </c>
       <c r="F48" s="3">
-        <v>101776000</v>
+        <v>105458000</v>
       </c>
       <c r="G48" s="3">
-        <v>99823200</v>
+        <v>103434000</v>
       </c>
       <c r="H48" s="3">
-        <v>94417800</v>
+        <v>97833200</v>
       </c>
       <c r="I48" s="3">
-        <v>98130600</v>
+        <v>101680000</v>
       </c>
       <c r="J48" s="3">
-        <v>79082100</v>
+        <v>81942700</v>
       </c>
       <c r="K48" s="3">
         <v>69733600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5440700</v>
+        <v>5637500</v>
       </c>
       <c r="E49" s="3">
-        <v>5320900</v>
+        <v>5513400</v>
       </c>
       <c r="F49" s="3">
-        <v>5194900</v>
+        <v>5382800</v>
       </c>
       <c r="G49" s="3">
-        <v>5193100</v>
+        <v>5380900</v>
       </c>
       <c r="H49" s="3">
-        <v>5061300</v>
+        <v>5244400</v>
       </c>
       <c r="I49" s="3">
-        <v>5064000</v>
+        <v>5247200</v>
       </c>
       <c r="J49" s="3">
-        <v>5320100</v>
+        <v>5512500</v>
       </c>
       <c r="K49" s="3">
         <v>5426100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12291600</v>
+        <v>12736200</v>
       </c>
       <c r="E52" s="3">
-        <v>10966500</v>
+        <v>11363200</v>
       </c>
       <c r="F52" s="3">
-        <v>9554600</v>
+        <v>9900200</v>
       </c>
       <c r="G52" s="3">
-        <v>8551900</v>
+        <v>8861200</v>
       </c>
       <c r="H52" s="3">
-        <v>7957000</v>
+        <v>8244900</v>
       </c>
       <c r="I52" s="3">
-        <v>7606200</v>
+        <v>7881300</v>
       </c>
       <c r="J52" s="3">
-        <v>6160300</v>
+        <v>6383100</v>
       </c>
       <c r="K52" s="3">
         <v>4764400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>228354000</v>
+        <v>236615000</v>
       </c>
       <c r="E54" s="3">
-        <v>215273000</v>
+        <v>223060000</v>
       </c>
       <c r="F54" s="3">
-        <v>213339000</v>
+        <v>221057000</v>
       </c>
       <c r="G54" s="3">
-        <v>213183000</v>
+        <v>220894000</v>
       </c>
       <c r="H54" s="3">
-        <v>200134000</v>
+        <v>207373000</v>
       </c>
       <c r="I54" s="3">
-        <v>188941000</v>
+        <v>195775000</v>
       </c>
       <c r="J54" s="3">
-        <v>163622000</v>
+        <v>169540000</v>
       </c>
       <c r="K54" s="3">
         <v>150957000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23506800</v>
+        <v>24357100</v>
       </c>
       <c r="E57" s="3">
-        <v>27200600</v>
+        <v>28184500</v>
       </c>
       <c r="F57" s="3">
-        <v>33143900</v>
+        <v>34342800</v>
       </c>
       <c r="G57" s="3">
-        <v>35326500</v>
+        <v>36604400</v>
       </c>
       <c r="H57" s="3">
-        <v>34230400</v>
+        <v>35468700</v>
       </c>
       <c r="I57" s="3">
-        <v>31991700</v>
+        <v>33148900</v>
       </c>
       <c r="J57" s="3">
-        <v>24460300</v>
+        <v>25345100</v>
       </c>
       <c r="K57" s="3">
         <v>17942900</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3177100</v>
+        <v>3292100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>700500</v>
+        <v>725900</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>149700</v>
+        <v>155100</v>
       </c>
       <c r="J58" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="K58" s="3">
         <v>9800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38079400</v>
+        <v>39456800</v>
       </c>
       <c r="E59" s="3">
-        <v>39291100</v>
+        <v>40712300</v>
       </c>
       <c r="F59" s="3">
-        <v>41138400</v>
+        <v>42626500</v>
       </c>
       <c r="G59" s="3">
-        <v>39153300</v>
+        <v>40569600</v>
       </c>
       <c r="H59" s="3">
-        <v>35995100</v>
+        <v>37297100</v>
       </c>
       <c r="I59" s="3">
-        <v>31279900</v>
+        <v>32411400</v>
       </c>
       <c r="J59" s="3">
-        <v>27517300</v>
+        <v>28512700</v>
       </c>
       <c r="K59" s="3">
         <v>24775100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64763300</v>
+        <v>67106000</v>
       </c>
       <c r="E60" s="3">
-        <v>66491600</v>
+        <v>68896800</v>
       </c>
       <c r="F60" s="3">
-        <v>74282300</v>
+        <v>76969300</v>
       </c>
       <c r="G60" s="3">
-        <v>75180300</v>
+        <v>77899800</v>
       </c>
       <c r="H60" s="3">
-        <v>70225500</v>
+        <v>72765700</v>
       </c>
       <c r="I60" s="3">
-        <v>63421300</v>
+        <v>65715400</v>
       </c>
       <c r="J60" s="3">
-        <v>51987200</v>
+        <v>53867700</v>
       </c>
       <c r="K60" s="3">
         <v>42727800</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7237200</v>
+        <v>7499000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>700100</v>
+        <v>725400</v>
       </c>
       <c r="I61" s="3">
-        <v>699700</v>
+        <v>725000</v>
       </c>
       <c r="J61" s="3">
-        <v>699300</v>
+        <v>724600</v>
       </c>
       <c r="K61" s="3">
         <v>715400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1156200</v>
+        <v>1198000</v>
       </c>
       <c r="E62" s="3">
-        <v>799300</v>
+        <v>828200</v>
       </c>
       <c r="F62" s="3">
-        <v>455500</v>
+        <v>472000</v>
       </c>
       <c r="G62" s="3">
-        <v>345800</v>
+        <v>358300</v>
       </c>
       <c r="H62" s="3">
-        <v>209400</v>
+        <v>217000</v>
       </c>
       <c r="I62" s="3">
-        <v>219800</v>
+        <v>227700</v>
       </c>
       <c r="J62" s="3">
-        <v>107400</v>
+        <v>111200</v>
       </c>
       <c r="K62" s="3">
         <v>3446100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73649500</v>
+        <v>76313600</v>
       </c>
       <c r="E66" s="3">
-        <v>67768100</v>
+        <v>70219400</v>
       </c>
       <c r="F66" s="3">
-        <v>75192600</v>
+        <v>77912600</v>
       </c>
       <c r="G66" s="3">
-        <v>75962900</v>
+        <v>78710700</v>
       </c>
       <c r="H66" s="3">
-        <v>71559900</v>
+        <v>74148500</v>
       </c>
       <c r="I66" s="3">
-        <v>64630400</v>
+        <v>66968300</v>
       </c>
       <c r="J66" s="3">
-        <v>53067200</v>
+        <v>54986800</v>
       </c>
       <c r="K66" s="3">
         <v>47156400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>98101600</v>
+        <v>101650000</v>
       </c>
       <c r="E72" s="3">
-        <v>90997600</v>
+        <v>94289300</v>
       </c>
       <c r="F72" s="3">
-        <v>81801900</v>
+        <v>84760900</v>
       </c>
       <c r="G72" s="3">
-        <v>80771700</v>
+        <v>83693400</v>
       </c>
       <c r="H72" s="3">
-        <v>72234400</v>
+        <v>74847300</v>
       </c>
       <c r="I72" s="3">
-        <v>68250500</v>
+        <v>70719300</v>
       </c>
       <c r="J72" s="3">
-        <v>56062300</v>
+        <v>58090300</v>
       </c>
       <c r="K72" s="3">
         <v>48153500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>154705000</v>
+        <v>160301000</v>
       </c>
       <c r="E76" s="3">
-        <v>147505000</v>
+        <v>152841000</v>
       </c>
       <c r="F76" s="3">
-        <v>138147000</v>
+        <v>143144000</v>
       </c>
       <c r="G76" s="3">
-        <v>137220000</v>
+        <v>142183000</v>
       </c>
       <c r="H76" s="3">
-        <v>128574000</v>
+        <v>133225000</v>
       </c>
       <c r="I76" s="3">
-        <v>124310000</v>
+        <v>128807000</v>
       </c>
       <c r="J76" s="3">
-        <v>110554000</v>
+        <v>114554000</v>
       </c>
       <c r="K76" s="3">
         <v>103800000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14925500</v>
+        <v>15487500</v>
       </c>
       <c r="E81" s="3">
-        <v>16484600</v>
+        <v>17105300</v>
       </c>
       <c r="F81" s="3">
-        <v>15994500</v>
+        <v>16596700</v>
       </c>
       <c r="G81" s="3">
-        <v>15219400</v>
+        <v>15792500</v>
       </c>
       <c r="H81" s="3">
-        <v>15191100</v>
+        <v>15763100</v>
       </c>
       <c r="I81" s="3">
-        <v>15286200</v>
+        <v>15861700</v>
       </c>
       <c r="J81" s="3">
-        <v>17032000</v>
+        <v>17673300</v>
       </c>
       <c r="K81" s="3">
         <v>18548200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25587200</v>
+        <v>26550700</v>
       </c>
       <c r="E83" s="3">
-        <v>21575400</v>
+        <v>22387800</v>
       </c>
       <c r="F83" s="3">
-        <v>21035300</v>
+        <v>21827300</v>
       </c>
       <c r="G83" s="3">
-        <v>19396900</v>
+        <v>20127300</v>
       </c>
       <c r="H83" s="3">
-        <v>19189400</v>
+        <v>19911900</v>
       </c>
       <c r="I83" s="3">
-        <v>17203500</v>
+        <v>17851200</v>
       </c>
       <c r="J83" s="3">
-        <v>14664600</v>
+        <v>15216800</v>
       </c>
       <c r="K83" s="3">
         <v>14479400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34652800</v>
+        <v>35957600</v>
       </c>
       <c r="E89" s="3">
-        <v>28852900</v>
+        <v>29939300</v>
       </c>
       <c r="F89" s="3">
-        <v>34362100</v>
+        <v>35656000</v>
       </c>
       <c r="G89" s="3">
-        <v>35508000</v>
+        <v>36845000</v>
       </c>
       <c r="H89" s="3">
-        <v>32903100</v>
+        <v>34142000</v>
       </c>
       <c r="I89" s="3">
-        <v>30292700</v>
+        <v>31433300</v>
       </c>
       <c r="J89" s="3">
-        <v>31488900</v>
+        <v>32674600</v>
       </c>
       <c r="K89" s="3">
         <v>33102100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28323000</v>
+        <v>-29389500</v>
       </c>
       <c r="E91" s="3">
-        <v>-26927600</v>
+        <v>-27941500</v>
       </c>
       <c r="F91" s="3">
-        <v>-27014400</v>
+        <v>-28031600</v>
       </c>
       <c r="G91" s="3">
-        <v>-26341700</v>
+        <v>-27333600</v>
       </c>
       <c r="H91" s="3">
-        <v>-24107100</v>
+        <v>-25014900</v>
       </c>
       <c r="I91" s="3">
-        <v>-24447200</v>
+        <v>-25367800</v>
       </c>
       <c r="J91" s="3">
-        <v>-19454000</v>
+        <v>-20186500</v>
       </c>
       <c r="K91" s="3">
         <v>-17681300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8986300</v>
+        <v>-9324600</v>
       </c>
       <c r="E94" s="3">
-        <v>-29703900</v>
+        <v>-30822300</v>
       </c>
       <c r="F94" s="3">
-        <v>-14910400</v>
+        <v>-15471800</v>
       </c>
       <c r="G94" s="3">
-        <v>-27225400</v>
+        <v>-28250600</v>
       </c>
       <c r="H94" s="3">
-        <v>-19978300</v>
+        <v>-20730600</v>
       </c>
       <c r="I94" s="3">
-        <v>-21166200</v>
+        <v>-21963100</v>
       </c>
       <c r="J94" s="3">
-        <v>-23999600</v>
+        <v>-24903300</v>
       </c>
       <c r="K94" s="3">
         <v>-27429900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7455000</v>
+        <v>-7735700</v>
       </c>
       <c r="E96" s="3">
-        <v>-8387800</v>
+        <v>-8703600</v>
       </c>
       <c r="F96" s="3">
-        <v>-14840800</v>
+        <v>-15399600</v>
       </c>
       <c r="G96" s="3">
-        <v>-6576900</v>
+        <v>-6824500</v>
       </c>
       <c r="H96" s="3">
-        <v>-6705800</v>
+        <v>-6958300</v>
       </c>
       <c r="I96" s="3">
-        <v>-7127300</v>
+        <v>-7395700</v>
       </c>
       <c r="J96" s="3">
-        <v>-7766500</v>
+        <v>-8059000</v>
       </c>
       <c r="K96" s="3">
         <v>-7952400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9083500</v>
+        <v>-9425600</v>
       </c>
       <c r="E100" s="3">
-        <v>-8092500</v>
+        <v>-8397200</v>
       </c>
       <c r="F100" s="3">
-        <v>-15148000</v>
+        <v>-15718400</v>
       </c>
       <c r="G100" s="3">
-        <v>-6852200</v>
+        <v>-7110200</v>
       </c>
       <c r="H100" s="3">
-        <v>-12107900</v>
+        <v>-12563800</v>
       </c>
       <c r="I100" s="3">
-        <v>-5952500</v>
+        <v>-6176600</v>
       </c>
       <c r="J100" s="3">
-        <v>-11117200</v>
+        <v>-11535800</v>
       </c>
       <c r="K100" s="3">
         <v>-7876600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="E101" s="3">
-        <v>79200</v>
+        <v>82200</v>
       </c>
       <c r="F101" s="3">
-        <v>-73800</v>
+        <v>-76500</v>
       </c>
       <c r="G101" s="3">
-        <v>49100</v>
+        <v>51000</v>
       </c>
       <c r="H101" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="I101" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="J101" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="K101" s="3">
         <v>1600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16603600</v>
+        <v>17228800</v>
       </c>
       <c r="E102" s="3">
-        <v>-8864200</v>
+        <v>-9198000</v>
       </c>
       <c r="F102" s="3">
-        <v>4230000</v>
+        <v>4389300</v>
       </c>
       <c r="G102" s="3">
-        <v>1479500</v>
+        <v>1535200</v>
       </c>
       <c r="H102" s="3">
-        <v>844000</v>
+        <v>875700</v>
       </c>
       <c r="I102" s="3">
-        <v>3167600</v>
+        <v>3286800</v>
       </c>
       <c r="J102" s="3">
-        <v>-3635500</v>
+        <v>-3772300</v>
       </c>
       <c r="K102" s="3">
         <v>-2202800</v>

--- a/AAII_Financials/Yearly/CHL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CHL_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>108329500</v>
+        <v>113468900</v>
       </c>
       <c r="E8" s="3">
-        <v>107008200</v>
+        <v>112084900</v>
       </c>
       <c r="F8" s="3">
-        <v>107544800</v>
+        <v>112647000</v>
       </c>
       <c r="G8" s="3">
-        <v>102884000</v>
+        <v>107765000</v>
       </c>
       <c r="H8" s="3">
-        <v>97062300</v>
+        <v>101667100</v>
       </c>
       <c r="I8" s="3">
-        <v>94618700</v>
+        <v>99107500</v>
       </c>
       <c r="J8" s="3">
-        <v>91520600</v>
+        <v>95862500</v>
       </c>
       <c r="K8" s="3">
         <v>80408100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10538600</v>
+        <v>11038600</v>
       </c>
       <c r="E9" s="3">
-        <v>19517900</v>
+        <v>20443900</v>
       </c>
       <c r="F9" s="3">
-        <v>20588700</v>
+        <v>21565400</v>
       </c>
       <c r="G9" s="3">
-        <v>21525100</v>
+        <v>22546300</v>
       </c>
       <c r="H9" s="3">
-        <v>19117100</v>
+        <v>20024000</v>
       </c>
       <c r="I9" s="3">
-        <v>16533000</v>
+        <v>17317300</v>
       </c>
       <c r="J9" s="3">
-        <v>15407200</v>
+        <v>16138100</v>
       </c>
       <c r="K9" s="3">
         <v>5028800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>97790900</v>
+        <v>102430300</v>
       </c>
       <c r="E10" s="3">
-        <v>87490300</v>
+        <v>91641000</v>
       </c>
       <c r="F10" s="3">
-        <v>86956200</v>
+        <v>91081500</v>
       </c>
       <c r="G10" s="3">
-        <v>81358900</v>
+        <v>85218700</v>
       </c>
       <c r="H10" s="3">
-        <v>77945200</v>
+        <v>81643100</v>
       </c>
       <c r="I10" s="3">
-        <v>78085700</v>
+        <v>81790200</v>
       </c>
       <c r="J10" s="3">
-        <v>76113400</v>
+        <v>79724400</v>
       </c>
       <c r="K10" s="3">
         <v>75379200</v>
@@ -834,10 +834,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>6390300</v>
+        <v>6693400</v>
       </c>
       <c r="F12" s="3">
-        <v>5521100</v>
+        <v>5783000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>432100</v>
+        <v>452600</v>
       </c>
       <c r="E14" s="3">
-        <v>181500</v>
+        <v>190200</v>
       </c>
       <c r="F14" s="3">
-        <v>1828900</v>
+        <v>1915600</v>
       </c>
       <c r="G14" s="3">
-        <v>1048000</v>
+        <v>1097700</v>
       </c>
       <c r="H14" s="3">
-        <v>1105800</v>
+        <v>1158200</v>
       </c>
       <c r="I14" s="3">
-        <v>577600</v>
+        <v>605000</v>
       </c>
       <c r="J14" s="3">
-        <v>301200</v>
+        <v>315500</v>
       </c>
       <c r="K14" s="3">
         <v>404300</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26550700</v>
+        <v>27810300</v>
       </c>
       <c r="E15" s="3">
-        <v>22387800</v>
+        <v>23449900</v>
       </c>
       <c r="F15" s="3">
-        <v>21827300</v>
+        <v>22862900</v>
       </c>
       <c r="G15" s="3">
-        <v>20127300</v>
+        <v>21082200</v>
       </c>
       <c r="H15" s="3">
-        <v>19911900</v>
+        <v>20856600</v>
       </c>
       <c r="I15" s="3">
-        <v>17851200</v>
+        <v>18698100</v>
       </c>
       <c r="J15" s="3">
-        <v>15216800</v>
+        <v>15938700</v>
       </c>
       <c r="K15" s="3">
         <v>14479400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>91896900</v>
+        <v>96256700</v>
       </c>
       <c r="E17" s="3">
-        <v>89379200</v>
+        <v>93619500</v>
       </c>
       <c r="F17" s="3">
-        <v>90098900</v>
+        <v>94373400</v>
       </c>
       <c r="G17" s="3">
-        <v>85734100</v>
+        <v>89801500</v>
       </c>
       <c r="H17" s="3">
-        <v>82114900</v>
+        <v>86010600</v>
       </c>
       <c r="I17" s="3">
-        <v>77580300</v>
+        <v>81260800</v>
       </c>
       <c r="J17" s="3">
-        <v>71820300</v>
+        <v>75227600</v>
       </c>
       <c r="K17" s="3">
         <v>58811200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16432600</v>
+        <v>17212200</v>
       </c>
       <c r="E18" s="3">
-        <v>17629000</v>
+        <v>18465400</v>
       </c>
       <c r="F18" s="3">
-        <v>17445900</v>
+        <v>18273600</v>
       </c>
       <c r="G18" s="3">
-        <v>17149900</v>
+        <v>17963500</v>
       </c>
       <c r="H18" s="3">
-        <v>14947400</v>
+        <v>15656500</v>
       </c>
       <c r="I18" s="3">
-        <v>17038400</v>
+        <v>17846700</v>
       </c>
       <c r="J18" s="3">
-        <v>19700300</v>
+        <v>20634900</v>
       </c>
       <c r="K18" s="3">
         <v>21596900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4679700</v>
+        <v>4901800</v>
       </c>
       <c r="E20" s="3">
-        <v>4741800</v>
+        <v>4966700</v>
       </c>
       <c r="F20" s="3">
-        <v>4098200</v>
+        <v>4292700</v>
       </c>
       <c r="G20" s="3">
-        <v>3864400</v>
+        <v>4047800</v>
       </c>
       <c r="H20" s="3">
-        <v>5992600</v>
+        <v>6276900</v>
       </c>
       <c r="I20" s="3">
-        <v>3763600</v>
+        <v>3942200</v>
       </c>
       <c r="J20" s="3">
-        <v>3378200</v>
+        <v>3538500</v>
       </c>
       <c r="K20" s="3">
         <v>3037200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>47562500</v>
+        <v>49922400</v>
       </c>
       <c r="E21" s="3">
-        <v>44673800</v>
+        <v>46880500</v>
       </c>
       <c r="F21" s="3">
-        <v>43288800</v>
+        <v>45427600</v>
       </c>
       <c r="G21" s="3">
-        <v>41065400</v>
+        <v>43092100</v>
       </c>
       <c r="H21" s="3">
-        <v>40776500</v>
+        <v>42788600</v>
       </c>
       <c r="I21" s="3">
-        <v>38585700</v>
+        <v>40485800</v>
       </c>
       <c r="J21" s="3">
-        <v>38237600</v>
+        <v>40111000</v>
       </c>
       <c r="K21" s="3">
         <v>39108500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>470400</v>
+        <v>492700</v>
       </c>
       <c r="E22" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="F22" s="3">
-        <v>30200</v>
+        <v>31600</v>
       </c>
       <c r="G22" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="H22" s="3">
-        <v>65500</v>
+        <v>68600</v>
       </c>
       <c r="I22" s="3">
-        <v>103500</v>
+        <v>108500</v>
       </c>
       <c r="J22" s="3">
-        <v>48100</v>
+        <v>50400</v>
       </c>
       <c r="K22" s="3">
         <v>56000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20642000</v>
+        <v>21621300</v>
       </c>
       <c r="E23" s="3">
-        <v>22350200</v>
+        <v>23410500</v>
       </c>
       <c r="F23" s="3">
-        <v>21513900</v>
+        <v>22534600</v>
       </c>
       <c r="G23" s="3">
-        <v>20980200</v>
+        <v>21975600</v>
       </c>
       <c r="H23" s="3">
-        <v>20874500</v>
+        <v>21864800</v>
       </c>
       <c r="I23" s="3">
-        <v>20698500</v>
+        <v>21680400</v>
       </c>
       <c r="J23" s="3">
-        <v>23030400</v>
+        <v>24123000</v>
       </c>
       <c r="K23" s="3">
         <v>24578100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5132700</v>
+        <v>5376200</v>
       </c>
       <c r="E24" s="3">
-        <v>5220100</v>
+        <v>5467800</v>
       </c>
       <c r="F24" s="3">
-        <v>4897600</v>
+        <v>5129900</v>
       </c>
       <c r="G24" s="3">
-        <v>5173500</v>
+        <v>5419000</v>
       </c>
       <c r="H24" s="3">
-        <v>5094500</v>
+        <v>5336200</v>
       </c>
       <c r="I24" s="3">
-        <v>4818600</v>
+        <v>5047200</v>
       </c>
       <c r="J24" s="3">
-        <v>5341000</v>
+        <v>5594400</v>
       </c>
       <c r="K24" s="3">
         <v>6014500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15509300</v>
+        <v>16245000</v>
       </c>
       <c r="E26" s="3">
-        <v>17130000</v>
+        <v>17942700</v>
       </c>
       <c r="F26" s="3">
-        <v>16616300</v>
+        <v>17404700</v>
       </c>
       <c r="G26" s="3">
-        <v>15806700</v>
+        <v>16556600</v>
       </c>
       <c r="H26" s="3">
-        <v>15780000</v>
+        <v>16528600</v>
       </c>
       <c r="I26" s="3">
-        <v>15879900</v>
+        <v>16633300</v>
       </c>
       <c r="J26" s="3">
-        <v>17689400</v>
+        <v>18528700</v>
       </c>
       <c r="K26" s="3">
         <v>18563600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15487500</v>
+        <v>16222200</v>
       </c>
       <c r="E27" s="3">
-        <v>17105300</v>
+        <v>17916800</v>
       </c>
       <c r="F27" s="3">
-        <v>16596700</v>
+        <v>17384100</v>
       </c>
       <c r="G27" s="3">
-        <v>15792500</v>
+        <v>16541700</v>
       </c>
       <c r="H27" s="3">
-        <v>15763100</v>
+        <v>16511000</v>
       </c>
       <c r="I27" s="3">
-        <v>15861700</v>
+        <v>16614200</v>
       </c>
       <c r="J27" s="3">
-        <v>17673300</v>
+        <v>18511800</v>
       </c>
       <c r="K27" s="3">
         <v>18548200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4679700</v>
+        <v>-4901800</v>
       </c>
       <c r="E32" s="3">
-        <v>-4741800</v>
+        <v>-4966700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4098200</v>
+        <v>-4292700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3864400</v>
+        <v>-4047800</v>
       </c>
       <c r="H32" s="3">
-        <v>-5992600</v>
+        <v>-6276900</v>
       </c>
       <c r="I32" s="3">
-        <v>-3763600</v>
+        <v>-3942200</v>
       </c>
       <c r="J32" s="3">
-        <v>-3378200</v>
+        <v>-3538500</v>
       </c>
       <c r="K32" s="3">
         <v>-3037200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15487500</v>
+        <v>16222200</v>
       </c>
       <c r="E33" s="3">
-        <v>17105300</v>
+        <v>17916800</v>
       </c>
       <c r="F33" s="3">
-        <v>16596700</v>
+        <v>17384100</v>
       </c>
       <c r="G33" s="3">
-        <v>15792500</v>
+        <v>16541700</v>
       </c>
       <c r="H33" s="3">
-        <v>15763100</v>
+        <v>16511000</v>
       </c>
       <c r="I33" s="3">
-        <v>15861700</v>
+        <v>16614200</v>
       </c>
       <c r="J33" s="3">
-        <v>17673300</v>
+        <v>18511800</v>
       </c>
       <c r="K33" s="3">
         <v>18548200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15487500</v>
+        <v>16222200</v>
       </c>
       <c r="E35" s="3">
-        <v>17105300</v>
+        <v>17916800</v>
       </c>
       <c r="F35" s="3">
-        <v>16596700</v>
+        <v>17384100</v>
       </c>
       <c r="G35" s="3">
-        <v>15792500</v>
+        <v>16541700</v>
       </c>
       <c r="H35" s="3">
-        <v>15763100</v>
+        <v>16511000</v>
       </c>
       <c r="I35" s="3">
-        <v>15861700</v>
+        <v>16614200</v>
       </c>
       <c r="J35" s="3">
-        <v>17673300</v>
+        <v>18511800</v>
       </c>
       <c r="K35" s="3">
         <v>18548200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25550700</v>
+        <v>26762900</v>
       </c>
       <c r="E41" s="3">
-        <v>8322000</v>
+        <v>8716800</v>
       </c>
       <c r="F41" s="3">
-        <v>17520000</v>
+        <v>18351100</v>
       </c>
       <c r="G41" s="3">
-        <v>13130700</v>
+        <v>13753600</v>
       </c>
       <c r="H41" s="3">
-        <v>11595500</v>
+        <v>12145600</v>
       </c>
       <c r="I41" s="3">
-        <v>10719700</v>
+        <v>11228300</v>
       </c>
       <c r="J41" s="3">
-        <v>6525300</v>
+        <v>6834900</v>
       </c>
       <c r="K41" s="3">
         <v>10173600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35589800</v>
+        <v>37278200</v>
       </c>
       <c r="E42" s="3">
-        <v>53490000</v>
+        <v>56027600</v>
       </c>
       <c r="F42" s="3">
-        <v>50104500</v>
+        <v>52481600</v>
       </c>
       <c r="G42" s="3">
-        <v>53327600</v>
+        <v>55857600</v>
       </c>
       <c r="H42" s="3">
-        <v>49740800</v>
+        <v>52100600</v>
       </c>
       <c r="I42" s="3">
-        <v>51630300</v>
+        <v>54079700</v>
       </c>
       <c r="J42" s="3">
-        <v>54457900</v>
+        <v>57041500</v>
       </c>
       <c r="K42" s="3">
         <v>47634900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10813500</v>
+        <v>11326600</v>
       </c>
       <c r="E43" s="3">
-        <v>10693900</v>
+        <v>11201200</v>
       </c>
       <c r="F43" s="3">
-        <v>8291800</v>
+        <v>8685100</v>
       </c>
       <c r="G43" s="3">
-        <v>14988900</v>
+        <v>15700000</v>
       </c>
       <c r="H43" s="3">
-        <v>6524000</v>
+        <v>6833500</v>
       </c>
       <c r="I43" s="3">
-        <v>7034400</v>
+        <v>7368100</v>
       </c>
       <c r="J43" s="3">
-        <v>3819100</v>
+        <v>4000300</v>
       </c>
       <c r="K43" s="3">
         <v>2953100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1065700</v>
+        <v>1116300</v>
       </c>
       <c r="E44" s="3">
-        <v>1286300</v>
+        <v>1347300</v>
       </c>
       <c r="F44" s="3">
-        <v>1484500</v>
+        <v>1555000</v>
       </c>
       <c r="G44" s="3">
-        <v>1282700</v>
+        <v>1343500</v>
       </c>
       <c r="H44" s="3">
-        <v>1451400</v>
+        <v>1520300</v>
       </c>
       <c r="I44" s="3">
-        <v>1349500</v>
+        <v>1413500</v>
       </c>
       <c r="J44" s="3">
-        <v>1329100</v>
+        <v>1392200</v>
       </c>
       <c r="K44" s="3">
         <v>1032300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3932700</v>
+        <v>4119300</v>
       </c>
       <c r="E45" s="3">
-        <v>3922800</v>
+        <v>4108900</v>
       </c>
       <c r="F45" s="3">
-        <v>3666000</v>
+        <v>3840000</v>
       </c>
       <c r="G45" s="3">
-        <v>2468600</v>
+        <v>2585700</v>
       </c>
       <c r="H45" s="3">
-        <v>1661700</v>
+        <v>1740600</v>
       </c>
       <c r="I45" s="3">
-        <v>2456300</v>
+        <v>2572800</v>
       </c>
       <c r="J45" s="3">
-        <v>1718400</v>
+        <v>1799900</v>
       </c>
       <c r="K45" s="3">
         <v>2283200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76952400</v>
+        <v>80603200</v>
       </c>
       <c r="E46" s="3">
-        <v>77714900</v>
+        <v>81401800</v>
       </c>
       <c r="F46" s="3">
-        <v>81066800</v>
+        <v>84912800</v>
       </c>
       <c r="G46" s="3">
-        <v>85198500</v>
+        <v>89240400</v>
       </c>
       <c r="H46" s="3">
-        <v>70973500</v>
+        <v>74340600</v>
       </c>
       <c r="I46" s="3">
-        <v>70716100</v>
+        <v>74071000</v>
       </c>
       <c r="J46" s="3">
-        <v>67849900</v>
+        <v>71068800</v>
       </c>
       <c r="K46" s="3">
         <v>64077200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>22618300</v>
+        <v>23691300</v>
       </c>
       <c r="E47" s="3">
-        <v>21190800</v>
+        <v>22196100</v>
       </c>
       <c r="F47" s="3">
-        <v>19249200</v>
+        <v>20162400</v>
       </c>
       <c r="G47" s="3">
-        <v>18019300</v>
+        <v>18874100</v>
       </c>
       <c r="H47" s="3">
-        <v>25077300</v>
+        <v>26267000</v>
       </c>
       <c r="I47" s="3">
-        <v>10250200</v>
+        <v>10736500</v>
       </c>
       <c r="J47" s="3">
-        <v>7852200</v>
+        <v>8224700</v>
       </c>
       <c r="K47" s="3">
         <v>6955300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>118670000</v>
+        <v>124300000</v>
       </c>
       <c r="E48" s="3">
-        <v>107278000</v>
+        <v>112367000</v>
       </c>
       <c r="F48" s="3">
-        <v>105458000</v>
+        <v>110461000</v>
       </c>
       <c r="G48" s="3">
-        <v>103434000</v>
+        <v>108341000</v>
       </c>
       <c r="H48" s="3">
-        <v>97833200</v>
+        <v>102475000</v>
       </c>
       <c r="I48" s="3">
-        <v>101680000</v>
+        <v>106504000</v>
       </c>
       <c r="J48" s="3">
-        <v>81942700</v>
+        <v>85830200</v>
       </c>
       <c r="K48" s="3">
         <v>69733600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5637500</v>
+        <v>5905000</v>
       </c>
       <c r="E49" s="3">
-        <v>5513400</v>
+        <v>5774900</v>
       </c>
       <c r="F49" s="3">
-        <v>5382800</v>
+        <v>5638200</v>
       </c>
       <c r="G49" s="3">
-        <v>5380900</v>
+        <v>5636200</v>
       </c>
       <c r="H49" s="3">
-        <v>5244400</v>
+        <v>5493200</v>
       </c>
       <c r="I49" s="3">
-        <v>5247200</v>
+        <v>5496100</v>
       </c>
       <c r="J49" s="3">
-        <v>5512500</v>
+        <v>5774000</v>
       </c>
       <c r="K49" s="3">
         <v>5426100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12736200</v>
+        <v>13340500</v>
       </c>
       <c r="E52" s="3">
-        <v>11363200</v>
+        <v>11902300</v>
       </c>
       <c r="F52" s="3">
-        <v>9900200</v>
+        <v>10369900</v>
       </c>
       <c r="G52" s="3">
-        <v>8861200</v>
+        <v>9281600</v>
       </c>
       <c r="H52" s="3">
-        <v>8244900</v>
+        <v>8636000</v>
       </c>
       <c r="I52" s="3">
-        <v>7881300</v>
+        <v>8255200</v>
       </c>
       <c r="J52" s="3">
-        <v>6383100</v>
+        <v>6686000</v>
       </c>
       <c r="K52" s="3">
         <v>4764400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>236615000</v>
+        <v>247840000</v>
       </c>
       <c r="E54" s="3">
-        <v>223060000</v>
+        <v>233643000</v>
       </c>
       <c r="F54" s="3">
-        <v>221057000</v>
+        <v>231544000</v>
       </c>
       <c r="G54" s="3">
-        <v>220894000</v>
+        <v>231374000</v>
       </c>
       <c r="H54" s="3">
-        <v>207373000</v>
+        <v>217211000</v>
       </c>
       <c r="I54" s="3">
-        <v>195775000</v>
+        <v>205063000</v>
       </c>
       <c r="J54" s="3">
-        <v>169540000</v>
+        <v>177584000</v>
       </c>
       <c r="K54" s="3">
         <v>150957000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24357100</v>
+        <v>25512700</v>
       </c>
       <c r="E57" s="3">
-        <v>28184500</v>
+        <v>29521600</v>
       </c>
       <c r="F57" s="3">
-        <v>34342800</v>
+        <v>35972100</v>
       </c>
       <c r="G57" s="3">
-        <v>36604400</v>
+        <v>38340900</v>
       </c>
       <c r="H57" s="3">
-        <v>35468700</v>
+        <v>37151400</v>
       </c>
       <c r="I57" s="3">
-        <v>33148900</v>
+        <v>34721500</v>
       </c>
       <c r="J57" s="3">
-        <v>25345100</v>
+        <v>26547500</v>
       </c>
       <c r="K57" s="3">
         <v>17942900</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3292100</v>
+        <v>3448300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>725900</v>
+        <v>760300</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>155100</v>
+        <v>162500</v>
       </c>
       <c r="J58" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="K58" s="3">
         <v>9800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39456800</v>
+        <v>41328700</v>
       </c>
       <c r="E59" s="3">
-        <v>40712300</v>
+        <v>42643800</v>
       </c>
       <c r="F59" s="3">
-        <v>42626500</v>
+        <v>44648700</v>
       </c>
       <c r="G59" s="3">
-        <v>40569600</v>
+        <v>42494300</v>
       </c>
       <c r="H59" s="3">
-        <v>37297100</v>
+        <v>39066500</v>
       </c>
       <c r="I59" s="3">
-        <v>32411400</v>
+        <v>33949100</v>
       </c>
       <c r="J59" s="3">
-        <v>28512700</v>
+        <v>29865400</v>
       </c>
       <c r="K59" s="3">
         <v>24775100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67106000</v>
+        <v>70289600</v>
       </c>
       <c r="E60" s="3">
-        <v>68896800</v>
+        <v>72165400</v>
       </c>
       <c r="F60" s="3">
-        <v>76969300</v>
+        <v>80620900</v>
       </c>
       <c r="G60" s="3">
-        <v>77899800</v>
+        <v>81595500</v>
       </c>
       <c r="H60" s="3">
-        <v>72765700</v>
+        <v>76217900</v>
       </c>
       <c r="I60" s="3">
-        <v>65715400</v>
+        <v>68833100</v>
       </c>
       <c r="J60" s="3">
-        <v>53867700</v>
+        <v>56423300</v>
       </c>
       <c r="K60" s="3">
         <v>42727800</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7499000</v>
+        <v>7854700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>725400</v>
+        <v>759800</v>
       </c>
       <c r="I61" s="3">
-        <v>725000</v>
+        <v>759400</v>
       </c>
       <c r="J61" s="3">
-        <v>724600</v>
+        <v>758900</v>
       </c>
       <c r="K61" s="3">
         <v>715400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1198000</v>
+        <v>1254800</v>
       </c>
       <c r="E62" s="3">
-        <v>828200</v>
+        <v>867500</v>
       </c>
       <c r="F62" s="3">
-        <v>472000</v>
+        <v>494400</v>
       </c>
       <c r="G62" s="3">
-        <v>358300</v>
+        <v>375300</v>
       </c>
       <c r="H62" s="3">
-        <v>217000</v>
+        <v>227300</v>
       </c>
       <c r="I62" s="3">
-        <v>227700</v>
+        <v>238500</v>
       </c>
       <c r="J62" s="3">
-        <v>111200</v>
+        <v>116500</v>
       </c>
       <c r="K62" s="3">
         <v>3446100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76313600</v>
+        <v>79934000</v>
       </c>
       <c r="E66" s="3">
-        <v>70219400</v>
+        <v>73550800</v>
       </c>
       <c r="F66" s="3">
-        <v>77912600</v>
+        <v>81608900</v>
       </c>
       <c r="G66" s="3">
-        <v>78710700</v>
+        <v>82444900</v>
       </c>
       <c r="H66" s="3">
-        <v>74148500</v>
+        <v>77666200</v>
       </c>
       <c r="I66" s="3">
-        <v>66968300</v>
+        <v>70145400</v>
       </c>
       <c r="J66" s="3">
-        <v>54986800</v>
+        <v>57595500</v>
       </c>
       <c r="K66" s="3">
         <v>47156400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>101650000</v>
+        <v>106473000</v>
       </c>
       <c r="E72" s="3">
-        <v>94289300</v>
+        <v>98762500</v>
       </c>
       <c r="F72" s="3">
-        <v>84760900</v>
+        <v>88782100</v>
       </c>
       <c r="G72" s="3">
-        <v>83693400</v>
+        <v>87664000</v>
       </c>
       <c r="H72" s="3">
-        <v>74847300</v>
+        <v>78398200</v>
       </c>
       <c r="I72" s="3">
-        <v>70719300</v>
+        <v>74074400</v>
       </c>
       <c r="J72" s="3">
-        <v>58090300</v>
+        <v>60846200</v>
       </c>
       <c r="K72" s="3">
         <v>48153500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>160301000</v>
+        <v>167906000</v>
       </c>
       <c r="E76" s="3">
-        <v>152841000</v>
+        <v>160092000</v>
       </c>
       <c r="F76" s="3">
-        <v>143144000</v>
+        <v>149935000</v>
       </c>
       <c r="G76" s="3">
-        <v>142183000</v>
+        <v>148929000</v>
       </c>
       <c r="H76" s="3">
-        <v>133225000</v>
+        <v>139545000</v>
       </c>
       <c r="I76" s="3">
-        <v>128807000</v>
+        <v>134918000</v>
       </c>
       <c r="J76" s="3">
-        <v>114554000</v>
+        <v>119988000</v>
       </c>
       <c r="K76" s="3">
         <v>103800000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15487500</v>
+        <v>16222200</v>
       </c>
       <c r="E81" s="3">
-        <v>17105300</v>
+        <v>17916800</v>
       </c>
       <c r="F81" s="3">
-        <v>16596700</v>
+        <v>17384100</v>
       </c>
       <c r="G81" s="3">
-        <v>15792500</v>
+        <v>16541700</v>
       </c>
       <c r="H81" s="3">
-        <v>15763100</v>
+        <v>16511000</v>
       </c>
       <c r="I81" s="3">
-        <v>15861700</v>
+        <v>16614200</v>
       </c>
       <c r="J81" s="3">
-        <v>17673300</v>
+        <v>18511800</v>
       </c>
       <c r="K81" s="3">
         <v>18548200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26550700</v>
+        <v>27810300</v>
       </c>
       <c r="E83" s="3">
-        <v>22387800</v>
+        <v>23449900</v>
       </c>
       <c r="F83" s="3">
-        <v>21827300</v>
+        <v>22862900</v>
       </c>
       <c r="G83" s="3">
-        <v>20127300</v>
+        <v>21082200</v>
       </c>
       <c r="H83" s="3">
-        <v>19911900</v>
+        <v>20856600</v>
       </c>
       <c r="I83" s="3">
-        <v>17851200</v>
+        <v>18698100</v>
       </c>
       <c r="J83" s="3">
-        <v>15216800</v>
+        <v>15938700</v>
       </c>
       <c r="K83" s="3">
         <v>14479400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35957600</v>
+        <v>37663500</v>
       </c>
       <c r="E89" s="3">
-        <v>29939300</v>
+        <v>31359700</v>
       </c>
       <c r="F89" s="3">
-        <v>35656000</v>
+        <v>37347600</v>
       </c>
       <c r="G89" s="3">
-        <v>36845000</v>
+        <v>38593000</v>
       </c>
       <c r="H89" s="3">
-        <v>34142000</v>
+        <v>35761700</v>
       </c>
       <c r="I89" s="3">
-        <v>31433300</v>
+        <v>32924500</v>
       </c>
       <c r="J89" s="3">
-        <v>32674600</v>
+        <v>34224700</v>
       </c>
       <c r="K89" s="3">
         <v>33102100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29389500</v>
+        <v>-30783800</v>
       </c>
       <c r="E91" s="3">
-        <v>-27941500</v>
+        <v>-29267100</v>
       </c>
       <c r="F91" s="3">
-        <v>-28031600</v>
+        <v>-29361400</v>
       </c>
       <c r="G91" s="3">
-        <v>-27333600</v>
+        <v>-28630400</v>
       </c>
       <c r="H91" s="3">
-        <v>-25014900</v>
+        <v>-26201600</v>
       </c>
       <c r="I91" s="3">
-        <v>-25367800</v>
+        <v>-26571300</v>
       </c>
       <c r="J91" s="3">
-        <v>-20186500</v>
+        <v>-21144200</v>
       </c>
       <c r="K91" s="3">
         <v>-17681300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9324600</v>
+        <v>-9767000</v>
       </c>
       <c r="E94" s="3">
-        <v>-30822300</v>
+        <v>-32284600</v>
       </c>
       <c r="F94" s="3">
-        <v>-15471800</v>
+        <v>-16205800</v>
       </c>
       <c r="G94" s="3">
-        <v>-28250600</v>
+        <v>-29590800</v>
       </c>
       <c r="H94" s="3">
-        <v>-20730600</v>
+        <v>-21714100</v>
       </c>
       <c r="I94" s="3">
-        <v>-21963100</v>
+        <v>-23005100</v>
       </c>
       <c r="J94" s="3">
-        <v>-24903300</v>
+        <v>-26084800</v>
       </c>
       <c r="K94" s="3">
         <v>-27429900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7735700</v>
+        <v>-8102700</v>
       </c>
       <c r="E96" s="3">
-        <v>-8703600</v>
+        <v>-9116600</v>
       </c>
       <c r="F96" s="3">
-        <v>-15399600</v>
+        <v>-16130200</v>
       </c>
       <c r="G96" s="3">
-        <v>-6824500</v>
+        <v>-7148300</v>
       </c>
       <c r="H96" s="3">
-        <v>-6958300</v>
+        <v>-7288400</v>
       </c>
       <c r="I96" s="3">
-        <v>-7395700</v>
+        <v>-7746600</v>
       </c>
       <c r="J96" s="3">
-        <v>-8059000</v>
+        <v>-8441300</v>
       </c>
       <c r="K96" s="3">
         <v>-7952400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9425600</v>
+        <v>-9872700</v>
       </c>
       <c r="E100" s="3">
-        <v>-8397200</v>
+        <v>-8795600</v>
       </c>
       <c r="F100" s="3">
-        <v>-15718400</v>
+        <v>-16464100</v>
       </c>
       <c r="G100" s="3">
-        <v>-7110200</v>
+        <v>-7447500</v>
       </c>
       <c r="H100" s="3">
-        <v>-12563800</v>
+        <v>-13159900</v>
       </c>
       <c r="I100" s="3">
-        <v>-6176600</v>
+        <v>-6469700</v>
       </c>
       <c r="J100" s="3">
-        <v>-11535800</v>
+        <v>-12083000</v>
       </c>
       <c r="K100" s="3">
         <v>-7876600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21300</v>
+        <v>22400</v>
       </c>
       <c r="E101" s="3">
-        <v>82200</v>
+        <v>86100</v>
       </c>
       <c r="F101" s="3">
-        <v>-76500</v>
+        <v>-80200</v>
       </c>
       <c r="G101" s="3">
-        <v>51000</v>
+        <v>53400</v>
       </c>
       <c r="H101" s="3">
-        <v>28200</v>
+        <v>29500</v>
       </c>
       <c r="I101" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="J101" s="3">
-        <v>-7800</v>
+        <v>-8200</v>
       </c>
       <c r="K101" s="3">
         <v>1600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17228800</v>
+        <v>18046100</v>
       </c>
       <c r="E102" s="3">
-        <v>-9198000</v>
+        <v>-9634400</v>
       </c>
       <c r="F102" s="3">
-        <v>4389300</v>
+        <v>4597500</v>
       </c>
       <c r="G102" s="3">
-        <v>1535200</v>
+        <v>1608100</v>
       </c>
       <c r="H102" s="3">
-        <v>875700</v>
+        <v>917300</v>
       </c>
       <c r="I102" s="3">
-        <v>3286800</v>
+        <v>3442800</v>
       </c>
       <c r="J102" s="3">
-        <v>-3772300</v>
+        <v>-3951300</v>
       </c>
       <c r="K102" s="3">
         <v>-2202800</v>
